--- a/server/assets/Product_type_import.xlsx
+++ b/server/assets/Product_type_import.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\30.06.24\All КОД\Ресурсы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\30.06.24\All КОД\Для БОМ\2\Ресурсы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB191C7F-F57F-472A-BC52-B2AD8C2C2090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED58BAA6-DA0B-46A2-94F2-C59C56103897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5976" yWindow="1056" windowWidth="18768" windowHeight="10500" xr2:uid="{89D4FFAC-2F42-4507-B667-6FAAEA0BEB88}"/>
+    <workbookView xWindow="4788" yWindow="24" windowWidth="18000" windowHeight="11460" xr2:uid="{9327F668-C0A9-41DC-98DB-4D7389887462}"/>
   </bookViews>
   <sheets>
     <sheet name="Product_type_import" sheetId="1" r:id="rId1"/>
@@ -42,16 +42,16 @@
     <t>Коэффициент типа продукции</t>
   </si>
   <si>
-    <t>Ламинат</t>
-  </si>
-  <si>
-    <t>Массивная доска</t>
-  </si>
-  <si>
-    <t>Паркетная доска</t>
-  </si>
-  <si>
-    <t>Пробковое покрытие</t>
+    <t>Декоративные обои</t>
+  </si>
+  <si>
+    <t>Фотообои</t>
+  </si>
+  <si>
+    <t>Обои под покраску</t>
+  </si>
+  <si>
+    <t>Стеклообои</t>
   </si>
 </sst>
 </file>
@@ -88,10 +88,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -407,8 +406,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB6A4C9-219F-4494-817C-E6954C3D5293}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8ABCA3-FCDC-4B30-8B55-A470EE4B0DEE}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -416,60 +415,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>2.35</v>
+      <c r="B2" s="1">
+        <v>5.5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>5.15</v>
+      <c r="B3" s="1">
+        <v>7.54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>4.34</v>
+      <c r="B4" s="1">
+        <v>3.25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
+      <c r="B5" s="1">
+        <v>2.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>